--- a/Group 12E Excel Worksheet.xlsx
+++ b/Group 12E Excel Worksheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seriousness\CSC\Yr 2\Sem 2\Machine learning\Galix Work\machine-learning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7800"/>
+    <workbookView windowWidth="19620" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,6 +70,9 @@
     <t>ImageNet</t>
   </si>
   <si>
+    <t>UN System Chief Executives Board  for  Coordination (CEB)</t>
+  </si>
+  <si>
     <t>Dataset Description</t>
   </si>
   <si>
@@ -90,6 +88,9 @@
     <t>The rapid advances in Vision Transformer (ViT) refresh the state-of-the-art performances in various vision tasks, overshadowing the conventional CNN-based models. This ignites a few recent striking-back research in the CNN world showing that pure CNN models can achieve as good performance as ViT models when carefully tuned. While encouraging, designing such high-performance CNN models is challenging, requiring non-trivial prior knowledge of network design. To this end, a novel framework termed Mathematical Architecture Design for Deep CNN (DeepMAD) is proposed to design high-performance CNN models in a principled way. In DeepMAD, a CNN network is modeled as an information processing system whose expressiveness and effectiveness can be analytically formulated by their structural parameters. Then a constrained mathematical programming (MP) problem is proposed to optimize these structural parameters. The MP problem can be easily solved by off-the-shelf MP solvers on CPUs with a small memory footprint. In addition, DeepMAD is a pure mathematical framework: no GPU or training data is required during network design. The superiority of DeepMAD is validated on multiple large-scale computer vision benchmark datasets. Notably on ImageNet-1k, only using conventional convolutional layers, DeepMAD achieves 0.7% and 1.5% higher top-1 accuracy than ConvNeXt and Swin on Tiny level, and 0.8% and 0.9% higher on Small level.</t>
   </si>
   <si>
+    <t xml:space="preserve">The United Nations System Chief Executives Board for Coordination (CEB) Financial Statistics database is the only comprehensive source of financial statistics for the organizations of the United Nations system. Data is collected from 43 United Nations entities (in some instances with further disaggregation) and figures are validated with the organizations’ audited financial statements wherever possible. This data is currently collected annually by the CEB Secretariat, as originally mandated by the Administrative Committee on Coordination (General Assembly decisions 47/449, 53/459, 57/557 and 57/558) and is the basis for the preparation of the statistical report of CEB on the budgetary and financial situation of the organizations of the United Nations system to the General Assembly and the DESA Report on the Operational Activities for Development. </t>
+  </si>
+  <si>
     <t>Link to the datasets</t>
   </si>
   <si>
@@ -105,12 +106,18 @@
     <t>https://paperswithcode.com/paper/deepmad-mathematical-architecture-design-for#code</t>
   </si>
   <si>
+    <t xml:space="preserve">https://unsceb.org/data-download </t>
+  </si>
+  <si>
     <t>Date of Dataset Creation</t>
   </si>
   <si>
     <t>The date when the dataset was created or released.</t>
   </si>
   <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
     <t>Size of Dataset</t>
   </si>
   <si>
@@ -126,6 +133,9 @@
     <t>25.1 GB</t>
   </si>
   <si>
+    <t>3.1 MB</t>
+  </si>
+  <si>
     <t>Number of Features</t>
   </si>
   <si>
@@ -147,6 +157,9 @@
     <t>Label, Image</t>
   </si>
   <si>
+    <t>Agency, calendar_year, amount, sub_type_name, rev_type, sub_type</t>
+  </si>
+  <si>
     <t>Number of Records</t>
   </si>
   <si>
@@ -174,12 +187,18 @@
     <t>Categorical</t>
   </si>
   <si>
+    <t>Numerical, Timestamp, Categorical</t>
+  </si>
+  <si>
     <t>Missing Values</t>
   </si>
   <si>
     <t>Information on missing or null values.</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Class Imbalance</t>
   </si>
   <si>
@@ -192,7 +211,7 @@
     <t>Most records have negative results</t>
   </si>
   <si>
-    <t>None</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>Potential Biases</t>
@@ -207,6 +226,9 @@
     <t>No biasness</t>
   </si>
   <si>
+    <t>No potential biases</t>
+  </si>
+  <si>
     <t>Data Quality</t>
   </si>
   <si>
@@ -222,6 +244,9 @@
     <t>High Quality Images with Corresponding Labels</t>
   </si>
   <si>
+    <t>Very reliable and good quality of data categorised within agencies</t>
+  </si>
+  <si>
     <t>Time Period Covered</t>
   </si>
   <si>
@@ -237,6 +262,9 @@
     <t>2015 - 2022</t>
   </si>
   <si>
+    <t>2018 - 2022</t>
+  </si>
+  <si>
     <t>Data Granularity</t>
   </si>
   <si>
@@ -252,6 +280,9 @@
     <t>Yearly</t>
   </si>
   <si>
+    <t>High level of detail</t>
+  </si>
+  <si>
     <t>Label Quality</t>
   </si>
   <si>
@@ -273,6 +304,9 @@
     <t>No possible unethical use of the data</t>
   </si>
   <si>
+    <t>No potential unethical use of data</t>
+  </si>
+  <si>
     <t>Data Format</t>
   </si>
   <si>
@@ -297,6 +331,9 @@
     <t>Publicly available by downloading zip files</t>
   </si>
   <si>
+    <t>Publitential by downloading dataset</t>
+  </si>
+  <si>
     <t>Related Datasets</t>
   </si>
   <si>
@@ -309,6 +346,9 @@
     <t>Oxford 102 Flower</t>
   </si>
   <si>
+    <t>Nationality dataset</t>
+  </si>
+  <si>
     <t>Potential Use Cases</t>
   </si>
   <si>
@@ -324,6 +364,9 @@
     <t>Use in creating captchas for authorization</t>
   </si>
   <si>
+    <t>Used to categorize agencies with amount of revenue they attain and how it is attained in UN agencies</t>
+  </si>
+  <si>
     <t>Preprocessing Required</t>
   </si>
   <si>
@@ -339,6 +382,9 @@
     <t>Data cleaning</t>
   </si>
   <si>
+    <t>Data duplication</t>
+  </si>
+  <si>
     <t>Documentation Quality</t>
   </si>
   <si>
@@ -354,6 +400,9 @@
     <t xml:space="preserve">Extensive research with methods and results </t>
   </si>
   <si>
+    <t>Extensive research</t>
+  </si>
+  <si>
     <t>Dataset Type</t>
   </si>
   <si>
@@ -369,6 +418,9 @@
     <t>Image</t>
   </si>
   <si>
+    <t>Timestamp, Numbers</t>
+  </si>
+  <si>
     <t>Accessibility Features</t>
   </si>
   <si>
@@ -384,6 +436,9 @@
     <t>Metadata For Developers and Data Scientists</t>
   </si>
   <si>
+    <t>Metadata  For Un Agencies and Revenue Followup</t>
+  </si>
+  <si>
     <t>Update Frequency</t>
   </si>
   <si>
@@ -400,66 +455,6 @@
   </si>
   <si>
     <t>Legal data values and complies</t>
-  </si>
-  <si>
-    <t>UN System Chief Executives Board  for  Coordination (CEB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The United Nations System Chief Executives Board for Coordination (CEB) Financial Statistics database is the only comprehensive source of financial statistics for the organizations of the United Nations system. Data is collected from 43 United Nations entities (in some instances with further disaggregation) and figures are validated with the organizations’ audited financial statements wherever possible. This data is currently collected annually by the CEB Secretariat, as originally mandated by the Administrative Committee on Coordination (General Assembly decisions 47/449, 53/459, 57/557 and 57/558) and is the basis for the preparation of the statistical report of CEB on the budgetary and financial situation of the organizations of the United Nations system to the General Assembly and the DESA Report on the Operational Activities for Development. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://unsceb.org/data-download </t>
-  </si>
-  <si>
-    <t>20/12/2023</t>
-  </si>
-  <si>
-    <t>3.1 MB</t>
-  </si>
-  <si>
-    <t>Agency, calendar_year, amount, sub_type_name, rev_type, sub_type</t>
-  </si>
-  <si>
-    <t>Numerical, Timestamp, Categorical</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>No potential biases</t>
-  </si>
-  <si>
-    <t>Very reliable and good quality of data categorised within agencies</t>
-  </si>
-  <si>
-    <t>2018 - 2022</t>
-  </si>
-  <si>
-    <t>High level of detail</t>
-  </si>
-  <si>
-    <t>No potential unethical use of data</t>
-  </si>
-  <si>
-    <t>Publitential by downloading dataset</t>
-  </si>
-  <si>
-    <t>Nationality dataset</t>
-  </si>
-  <si>
-    <t>Used to categorize agencies with amount of revenue they attain and how it is attained in UN agencies</t>
-  </si>
-  <si>
-    <t>Data duplication</t>
-  </si>
-  <si>
-    <t>Extensive research</t>
-  </si>
-  <si>
-    <t>Timestamp, Numbers</t>
-  </si>
-  <si>
-    <t>Metadata  For Un Agencies and Revenue Followup</t>
   </si>
   <si>
     <t>Complianced to categorize agencies with amount regulatory revenue how they are attained</t>
@@ -468,8 +463,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +522,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -537,14 +545,143 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,8 +724,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -639,16 +962,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -661,6 +1226,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -685,10 +1253,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -709,31 +1283,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -991,806 +1596,809 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31:F32"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="110.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="110.142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" ht="27" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" ht="48" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="32.25" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" ht="32.25" spans="1:12">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:12">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" ht="409.5" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" ht="32.25" spans="1:12">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="19">
+        <v>45445</v>
+      </c>
+      <c r="D7" s="19">
+        <v>45150</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:12">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:12">
+      <c r="A9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1312</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>35294</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" ht="32.25" spans="1:12">
+      <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:12">
+      <c r="A11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1431167</v>
+      </c>
+      <c r="F11" s="10">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:12">
+      <c r="A12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:12">
+      <c r="A13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.0927</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:12">
+      <c r="A14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:12">
+      <c r="A15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" ht="32.25" spans="1:12">
+      <c r="A16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:12">
+      <c r="A17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:12">
+      <c r="A18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:12">
+      <c r="A19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:12">
+      <c r="A20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:12">
+      <c r="A21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:12">
+      <c r="A22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" ht="32.25" spans="1:12">
+      <c r="A23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" ht="32.25" spans="1:12">
+      <c r="A24" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:12">
+      <c r="A25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" ht="32.25" spans="1:12">
+      <c r="A26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" ht="409.6" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="F26" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:12">
+      <c r="A27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="15">
-        <v>45445</v>
-      </c>
-      <c r="D7" s="15">
-        <v>45150</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2</v>
-      </c>
-      <c r="F7" s="24" t="s">
+      <c r="B27" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="24" t="s">
+      <c r="C27" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1312</v>
-      </c>
-      <c r="D9" s="17">
-        <v>3</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>35294</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="D27" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1431167</v>
-      </c>
-      <c r="F11" s="8">
-        <v>6</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="24" t="s">
+      <c r="E27" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="19">
-        <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="24" t="s">
+      <c r="F27" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="24" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:12">
+      <c r="A28" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="24" t="s">
+      <c r="B28" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="C28" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="24" t="s">
+      <c r="D28" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="24" t="s">
+      <c r="E28" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="F28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:12">
+      <c r="A29" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:12" ht="48" thickBot="1">
-      <c r="A24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="24" t="s">
+      <c r="D29" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A26" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="24" t="s">
+      <c r="E29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" ht="32.25" spans="1:12">
+      <c r="A30" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="24" t="s">
+      <c r="B30" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A28" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="24" t="s">
+      <c r="C30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A29" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="24" t="s">
+      <c r="D30" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://datadryad.org/stash/dataset/doi:10.5061/dryad.5dv41nsd0"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://unsceb.org/data-download " tooltip="https://unsceb.org/data-download "/>
+    <hyperlink ref="E6" r:id="rId3" display="https://paperswithcode.com/paper/deepmad-mathematical-architecture-design-for#code"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>